--- a/Lista Contatos Teste.xlsx
+++ b/Lista Contatos Teste.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\ansel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\PycharmProjects\Criar-Contatos\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E947EA0-1050-4B96-B20E-1E7FF5C8121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4FD2D-EC3E-4C6D-AC9B-948DF674574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1740" windowWidth="20895" windowHeight="11400" xr2:uid="{C10B367F-1559-4503-95E1-7675995B5494}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{C10B367F-1559-4503-95E1-7675995B5494}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nome</t>
   </si>
@@ -71,22 +71,31 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>51 9 1234-4321</t>
-  </si>
-  <si>
-    <t>lucas@gmail.com</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>54 9 5757-7575</t>
-  </si>
-  <si>
-    <t>carlos@outook.com</t>
+    <t>Luciana</t>
+  </si>
+  <si>
+    <t>51 9 9423- 1231</t>
+  </si>
+  <si>
+    <t>luciana@luciana.com</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>55 9 9213=2134</t>
+  </si>
+  <si>
+    <t>artur@artur.com</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>56 9 9999--2222</t>
+  </si>
+  <si>
+    <t>eduardo@eduardo.com</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DB3677-701A-4050-9CE0-9FEC1DB2C38A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,14 +537,27 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DCE5E395-DFB8-40E0-AD47-FAE08E8B1E3C}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{AB4E82A1-5CCB-4727-B7E7-CDC5F8FFE4C5}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{C58F9E96-8020-45D0-9C86-DF0C7B2471CE}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{9B625790-21D0-42A6-86EA-4855A62D90FA}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{5279677D-B56B-4748-800B-5C6C32858F80}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{D9759345-B215-4158-8F1C-B7067B67A5C1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B9B9A64A-1E4D-494D-9025-37644A537F7F}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{2B4ABA0C-9741-4966-A55E-73EB2D77B6DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>